--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1222.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1222.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.07136600830571</v>
+        <v>1.19701361656189</v>
       </c>
       <c r="B1">
-        <v>3.330708608887101</v>
+        <v>2.045663595199585</v>
       </c>
       <c r="C1">
-        <v>2.777785235589</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.925370012057009</v>
+        <v>2.076266765594482</v>
       </c>
       <c r="E1">
-        <v>1.196812143087042</v>
+        <v>1.210805892944336</v>
       </c>
     </row>
   </sheetData>
